--- a/SUEWSPrepare/Input/SUEWS_SiteLibrary.xlsx
+++ b/SUEWSPrepare/Input/SUEWS_SiteLibrary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xlinfr\Documents\PythonScripts\UMEP\SUEWSPrepare\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80C7A19-2104-45E2-85C5-A89E2F7D4764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9312" tabRatio="943" activeTab="7"/>
+    <workbookView xWindow="-14625" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="915" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUEWS_SiteSelect" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,36 @@
     <sheet name="SUEWS_Snow" sheetId="5" r:id="rId5"/>
     <sheet name="SUEWS_Soil" sheetId="6" r:id="rId6"/>
     <sheet name="SUEWS_Conductance" sheetId="7" r:id="rId7"/>
-    <sheet name="SUEWS_AnthropogenicEmission" sheetId="8" r:id="rId8"/>
-    <sheet name="SUEWS_Irrigation" sheetId="9" r:id="rId9"/>
+    <sheet name="SUEWS_Irrigation" sheetId="9" r:id="rId8"/>
+    <sheet name="SUEWS_AnthropogenicEmission" sheetId="8" r:id="rId9"/>
     <sheet name="SUEWS_Profiles" sheetId="10" r:id="rId10"/>
     <sheet name="SUEWS_WithinGridWaterDist" sheetId="11" r:id="rId11"/>
     <sheet name="SUEWS_OHMCoefficients" sheetId="12" r:id="rId12"/>
     <sheet name="SUEWS_ESTMCoefficients" sheetId="13" r:id="rId13"/>
     <sheet name="SUEWS_BiogenCO2" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SUEWS_NonVeg!$A$2:$AF$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">SUEWS_OHMCoefficients!$G$1:$G$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SUEWS_Veg!$AT$1:$AT$18</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="777">
   <si>
     <t>Grid</t>
   </si>
@@ -2407,7 +2424,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2980,11 +2997,11 @@
     <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="37"/>
-    <cellStyle name="Note 2" xfId="38"/>
+    <cellStyle name="Normal 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Note 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Output" xfId="39" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="40" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Title 2" xfId="41"/>
+    <cellStyle name="Title 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -3077,6 +3094,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3112,6 +3146,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3287,14 +3338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:DI97"/>
   <sheetViews>
-    <sheetView topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CR9" sqref="CR9"/>
+    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5201,19 +5252,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC6" sqref="A2:AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="28" max="28" width="14.109375" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -8946,7 +8998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10508,17 +10560,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="8.88671875" style="8"/>
+    <col min="6" max="6" width="77.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -10900,6 +10958,9 @@
       <c r="F18" s="1" t="s">
         <v>420</v>
       </c>
+      <c r="G18" s="5" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -10920,6 +10981,9 @@
       <c r="F19" s="1" t="s">
         <v>421</v>
       </c>
+      <c r="G19" s="5" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -10963,6 +11027,9 @@
       <c r="F21" s="1" t="s">
         <v>424</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -10983,6 +11050,9 @@
       <c r="F22" s="1" t="s">
         <v>425</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -11885,6 +11955,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G64" xr:uid="{00000000-0001-0000-0B00-000000000000}"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11896,14 +11967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BF33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17169,14 +17240,17 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -17516,17 +17590,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:IV28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="22" width="12.21875" customWidth="1"/>
+    <col min="23" max="23" width="14.5546875" customWidth="1"/>
+    <col min="24" max="24" width="16.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -17700,7 +17779,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
@@ -17777,7 +17856,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -17955,7 +18034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>551</v>
       </c>
@@ -18139,7 +18218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>553</v>
       </c>
@@ -18231,7 +18310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>661</v>
       </c>
@@ -18415,7 +18494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>663</v>
       </c>
@@ -18507,7 +18586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>703</v>
       </c>
@@ -18600,12 +18679,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-9</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-9</v>
       </c>
@@ -18614,6 +18693,14 @@
       <c r="V23" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AF14" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="30">
+      <filters>
+        <filter val="BLDG"/>
+        <filter val="Bldgs"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18625,20 +18712,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AT18"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL21" sqref="AL21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="24" max="24" width="10.88671875" customWidth="1"/>
-    <col min="45" max="45" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -20769,6 +20856,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="AT1:AT18" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -20780,14 +20868,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21288,17 +21376,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -21924,14 +22016,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A7" sqref="A7:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -22653,7 +22745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -22984,19 +23076,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AU17"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -23075,1861 +23167,566 @@
       <c r="Z1">
         <v>26</v>
       </c>
-      <c r="AA1">
-        <v>27</v>
-      </c>
-      <c r="AB1">
-        <v>28</v>
-      </c>
-      <c r="AC1">
-        <v>29</v>
-      </c>
-      <c r="AD1">
-        <v>30</v>
-      </c>
-      <c r="AE1">
-        <v>31</v>
-      </c>
-      <c r="AF1">
-        <v>32</v>
-      </c>
-      <c r="AG1">
-        <v>33</v>
-      </c>
-      <c r="AH1">
-        <v>34</v>
-      </c>
-      <c r="AI1">
-        <v>35</v>
-      </c>
-      <c r="AJ1">
-        <v>36</v>
-      </c>
-      <c r="AK1">
-        <v>37</v>
-      </c>
-      <c r="AL1">
-        <v>38</v>
-      </c>
-      <c r="AM1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>776</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>653</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>654</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>655</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>656</v>
+        <v>761</v>
       </c>
       <c r="G2" t="s">
-        <v>657</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
-        <v>658</v>
+        <v>307</v>
       </c>
       <c r="I2" t="s">
-        <v>659</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M2" t="s">
+        <v>312</v>
+      </c>
+      <c r="N2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O2" t="s">
+        <v>314</v>
+      </c>
+      <c r="P2" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R2" t="s">
+        <v>317</v>
+      </c>
+      <c r="S2" t="s">
+        <v>318</v>
+      </c>
+      <c r="T2" t="s">
+        <v>319</v>
+      </c>
+      <c r="U2" t="s">
+        <v>320</v>
+      </c>
+      <c r="V2" t="s">
+        <v>321</v>
+      </c>
+      <c r="W2" t="s">
+        <v>322</v>
+      </c>
+      <c r="X2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>152</v>
+      </c>
+      <c r="C4">
+        <v>243</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>-999</v>
+      </c>
+      <c r="G4">
+        <v>-84.534999999999997</v>
+      </c>
+      <c r="H4">
+        <v>9.9589999999999996</v>
+      </c>
+      <c r="I4">
+        <v>3.6739999999999999</v>
+      </c>
+      <c r="J4">
+        <v>-25.36</v>
+      </c>
+      <c r="K4">
+        <v>2.988</v>
+      </c>
+      <c r="L4">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>550</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>366</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>660</v>
       </c>
-      <c r="K2" t="s">
-        <v>661</v>
-      </c>
-      <c r="L2" t="s">
-        <v>662</v>
-      </c>
-      <c r="M2" t="s">
-        <v>663</v>
-      </c>
-      <c r="N2" t="s">
-        <v>664</v>
-      </c>
-      <c r="O2" t="s">
-        <v>665</v>
-      </c>
-      <c r="P2" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>667</v>
-      </c>
-      <c r="R2" t="s">
-        <v>668</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" t="s">
-        <v>543</v>
-      </c>
-      <c r="V2" t="s">
-        <v>544</v>
-      </c>
-      <c r="W2" t="s">
-        <v>669</v>
-      </c>
-      <c r="X2" t="s">
-        <v>670</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>671</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>672</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>673</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>674</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>720</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>721</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>722</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>675</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>676</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>677</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>678</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>723</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>724</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>725</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>18.2</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="E4">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.1</v>
-      </c>
-      <c r="G4">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H4">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>2.7</v>
-      </c>
-      <c r="L4">
-        <v>2.7</v>
-      </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>2.7</v>
-      </c>
-      <c r="O4">
-        <v>7</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
-      </c>
-      <c r="R4">
-        <v>7</v>
-      </c>
-      <c r="S4">
-        <v>44</v>
-      </c>
-      <c r="T4">
-        <v>45</v>
-      </c>
-      <c r="U4">
-        <v>55663</v>
-      </c>
-      <c r="V4">
-        <v>55664</v>
-      </c>
-      <c r="W4">
-        <v>701</v>
-      </c>
-      <c r="X4">
-        <v>702</v>
-      </c>
-      <c r="Y4">
-        <v>801</v>
-      </c>
-      <c r="Z4">
-        <v>802</v>
-      </c>
-      <c r="AA4">
-        <v>75</v>
-      </c>
-      <c r="AB4">
-        <v>175</v>
-      </c>
-      <c r="AC4">
-        <v>120</v>
-      </c>
-      <c r="AD4">
-        <v>280</v>
-      </c>
-      <c r="AE4">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="AF4">
-        <v>0.05</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>1.159</v>
-      </c>
-      <c r="AI4">
-        <v>3970000</v>
-      </c>
-      <c r="AJ4">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK4">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+      <c r="C6">
+        <v>366</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>999</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="C7">
+        <v>366</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-999</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AP4" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>651</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>18.2</v>
-      </c>
-      <c r="C5">
-        <v>0.30809999999999998</v>
-      </c>
-      <c r="D5">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="E5">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.30809999999999998</v>
-      </c>
-      <c r="G5">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H5">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="I5">
-        <v>-999</v>
-      </c>
-      <c r="J5">
-        <v>-999</v>
-      </c>
-      <c r="K5">
-        <v>-999</v>
-      </c>
-      <c r="L5">
-        <v>-999</v>
-      </c>
-      <c r="M5">
-        <v>-999</v>
-      </c>
-      <c r="N5">
-        <v>-999</v>
-      </c>
-      <c r="O5">
-        <v>-999</v>
-      </c>
-      <c r="P5">
-        <v>-999</v>
-      </c>
-      <c r="Q5">
-        <v>-999</v>
-      </c>
-      <c r="R5">
-        <v>-999</v>
-      </c>
-      <c r="S5">
-        <v>44</v>
-      </c>
-      <c r="T5">
-        <v>45</v>
-      </c>
-      <c r="U5">
-        <v>55663</v>
-      </c>
-      <c r="V5">
-        <v>55664</v>
-      </c>
-      <c r="W5">
-        <v>701</v>
-      </c>
-      <c r="X5">
-        <v>702</v>
-      </c>
-      <c r="Y5">
-        <v>801</v>
-      </c>
-      <c r="Z5">
-        <v>802</v>
-      </c>
-      <c r="AA5">
-        <v>75</v>
-      </c>
-      <c r="AB5">
-        <v>175</v>
-      </c>
-      <c r="AC5">
-        <v>120</v>
-      </c>
-      <c r="AD5">
-        <v>280</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>0.05</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>1.159</v>
-      </c>
-      <c r="AI5">
-        <v>4110000</v>
-      </c>
-      <c r="AJ5">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK5">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>551</v>
-      </c>
-      <c r="B6">
-        <v>18.2</v>
-      </c>
-      <c r="C6">
-        <v>0.14460000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="F6">
-        <v>0.13289999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>3.8E-3</v>
-      </c>
-      <c r="I6">
-        <v>-999</v>
-      </c>
-      <c r="J6">
-        <v>-999</v>
-      </c>
-      <c r="K6">
-        <v>-999</v>
-      </c>
-      <c r="L6">
-        <v>-999</v>
-      </c>
-      <c r="M6">
-        <v>-999</v>
-      </c>
-      <c r="N6">
-        <v>-999</v>
-      </c>
-      <c r="O6">
-        <v>-999</v>
-      </c>
-      <c r="P6">
-        <v>-999</v>
-      </c>
-      <c r="Q6">
-        <v>-999</v>
-      </c>
-      <c r="R6">
-        <v>-999</v>
-      </c>
-      <c r="S6">
-        <v>42</v>
-      </c>
-      <c r="T6">
-        <v>43</v>
-      </c>
-      <c r="U6">
-        <v>55663</v>
-      </c>
-      <c r="V6">
-        <v>55664</v>
-      </c>
-      <c r="W6">
-        <v>701</v>
-      </c>
-      <c r="X6">
-        <v>702</v>
-      </c>
-      <c r="Y6">
-        <v>801</v>
-      </c>
-      <c r="Z6">
-        <v>802</v>
-      </c>
-      <c r="AA6">
-        <v>75</v>
-      </c>
-      <c r="AB6">
-        <v>175</v>
-      </c>
-      <c r="AC6">
-        <v>120</v>
-      </c>
-      <c r="AD6">
-        <v>280</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>0.7</v>
-      </c>
-      <c r="AG6">
-        <v>0.7</v>
-      </c>
-      <c r="AH6">
-        <v>1.159</v>
-      </c>
-      <c r="AI6">
-        <v>3970000</v>
-      </c>
-      <c r="AJ6">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK6">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>652</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5512</v>
-      </c>
-      <c r="B7">
-        <v>18.2</v>
-      </c>
-      <c r="C7">
-        <v>0.30809999999999998</v>
-      </c>
-      <c r="D7">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="E7">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.30809999999999998</v>
-      </c>
-      <c r="G7">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H7">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="I7">
-        <v>-999</v>
-      </c>
-      <c r="J7">
-        <v>-999</v>
-      </c>
-      <c r="K7">
-        <v>-999</v>
-      </c>
-      <c r="L7">
-        <v>-999</v>
-      </c>
-      <c r="M7">
-        <v>-999</v>
-      </c>
-      <c r="N7">
-        <v>-999</v>
-      </c>
-      <c r="O7">
-        <v>-999</v>
-      </c>
-      <c r="P7">
-        <v>-999</v>
-      </c>
-      <c r="Q7">
-        <v>-999</v>
-      </c>
-      <c r="R7">
-        <v>-999</v>
-      </c>
-      <c r="S7">
-        <v>42</v>
-      </c>
-      <c r="T7">
-        <v>43</v>
-      </c>
-      <c r="U7">
-        <v>55663</v>
-      </c>
-      <c r="V7">
-        <v>55664</v>
-      </c>
-      <c r="W7">
-        <v>701</v>
-      </c>
-      <c r="X7">
-        <v>702</v>
-      </c>
-      <c r="Y7">
-        <v>801</v>
-      </c>
-      <c r="Z7">
-        <v>802</v>
-      </c>
-      <c r="AA7">
-        <v>75</v>
-      </c>
-      <c r="AB7">
-        <v>175</v>
-      </c>
-      <c r="AC7">
-        <v>120</v>
-      </c>
-      <c r="AD7">
-        <v>280</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>0.7</v>
-      </c>
-      <c r="AG7">
-        <v>0.7</v>
-      </c>
-      <c r="AH7">
-        <v>1.159</v>
-      </c>
-      <c r="AI7">
-        <v>3970000</v>
-      </c>
-      <c r="AJ7">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK7">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>681</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AB7" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>661</v>
-      </c>
-      <c r="B8">
-        <v>18.2</v>
-      </c>
-      <c r="C8">
-        <v>0.30809999999999998</v>
-      </c>
-      <c r="D8">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="E8">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="F8">
-        <v>0.30809999999999998</v>
-      </c>
-      <c r="G8">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H8">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>2.7</v>
-      </c>
-      <c r="L8">
-        <v>2.7</v>
-      </c>
-      <c r="M8">
-        <v>2.7</v>
-      </c>
-      <c r="N8">
-        <v>2.7</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>7</v>
-      </c>
-      <c r="S8">
-        <v>42</v>
-      </c>
-      <c r="T8">
-        <v>43</v>
-      </c>
-      <c r="U8">
-        <v>55663</v>
-      </c>
-      <c r="V8">
-        <v>55664</v>
-      </c>
-      <c r="W8">
-        <v>701</v>
-      </c>
-      <c r="X8">
-        <v>702</v>
-      </c>
-      <c r="Y8">
-        <v>801</v>
-      </c>
-      <c r="Z8">
-        <v>802</v>
-      </c>
-      <c r="AA8">
-        <v>75</v>
-      </c>
-      <c r="AB8">
-        <v>175</v>
-      </c>
-      <c r="AC8">
-        <v>120</v>
-      </c>
-      <c r="AD8">
-        <v>280</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>0.7</v>
-      </c>
-      <c r="AG8">
-        <v>0.7</v>
-      </c>
-      <c r="AH8">
-        <v>1.159</v>
-      </c>
-      <c r="AI8">
-        <v>3970000</v>
-      </c>
-      <c r="AJ8">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK8">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>18.2</v>
-      </c>
-      <c r="C9">
-        <v>0.1</v>
-      </c>
-      <c r="D9">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="E9">
-        <v>0.02</v>
-      </c>
-      <c r="F9">
-        <v>0.1</v>
-      </c>
-      <c r="G9">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H9">
-        <v>0.02</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <v>2.7</v>
-      </c>
-      <c r="L9">
-        <v>2.7</v>
-      </c>
-      <c r="M9">
-        <v>2.7</v>
-      </c>
-      <c r="N9">
-        <v>2.7</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <v>7</v>
-      </c>
-      <c r="R9">
-        <v>7</v>
-      </c>
-      <c r="S9">
-        <v>44</v>
-      </c>
-      <c r="T9">
-        <v>45</v>
-      </c>
-      <c r="U9">
-        <v>55663</v>
-      </c>
-      <c r="V9">
-        <v>55664</v>
-      </c>
-      <c r="W9">
-        <v>701</v>
-      </c>
-      <c r="X9">
-        <v>702</v>
-      </c>
-      <c r="Y9">
-        <v>801</v>
-      </c>
-      <c r="Z9">
-        <v>802</v>
-      </c>
-      <c r="AA9">
-        <v>75</v>
-      </c>
-      <c r="AB9">
-        <v>175</v>
-      </c>
-      <c r="AC9">
-        <v>120</v>
-      </c>
-      <c r="AD9">
-        <v>280</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>0.05</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>1.159</v>
-      </c>
-      <c r="AI9">
-        <v>4110000</v>
-      </c>
-      <c r="AJ9">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK9">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>18.2</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
-      </c>
-      <c r="D10">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="E10">
-        <v>0.03</v>
-      </c>
-      <c r="F10">
-        <v>0.1</v>
-      </c>
-      <c r="G10">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H10">
-        <v>0.03</v>
-      </c>
-      <c r="I10">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>2.7</v>
-      </c>
-      <c r="L10">
-        <v>2.7</v>
-      </c>
-      <c r="M10">
-        <v>2.7</v>
-      </c>
-      <c r="N10">
-        <v>2.7</v>
-      </c>
-      <c r="O10">
-        <v>7</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10">
-        <v>7</v>
-      </c>
-      <c r="S10">
-        <v>44</v>
-      </c>
-      <c r="T10">
-        <v>45</v>
-      </c>
-      <c r="U10">
-        <v>55663</v>
-      </c>
-      <c r="V10">
-        <v>55664</v>
-      </c>
-      <c r="W10">
-        <v>701</v>
-      </c>
-      <c r="X10">
-        <v>702</v>
-      </c>
-      <c r="Y10">
-        <v>801</v>
-      </c>
-      <c r="Z10">
-        <v>802</v>
-      </c>
-      <c r="AA10">
-        <v>75</v>
-      </c>
-      <c r="AB10">
-        <v>175</v>
-      </c>
-      <c r="AC10">
-        <v>120</v>
-      </c>
-      <c r="AD10">
-        <v>280</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>0.05</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>1.159</v>
-      </c>
-      <c r="AI10">
-        <v>4110000</v>
-      </c>
-      <c r="AJ10">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK10">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>18.2</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-      <c r="D11">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="E11">
-        <v>0.04</v>
-      </c>
-      <c r="F11">
-        <v>0.1</v>
-      </c>
-      <c r="G11">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H11">
-        <v>0.04</v>
-      </c>
-      <c r="I11">
-        <v>15</v>
-      </c>
-      <c r="J11">
-        <v>15</v>
-      </c>
-      <c r="K11">
-        <v>2.7</v>
-      </c>
-      <c r="L11">
-        <v>2.7</v>
-      </c>
-      <c r="M11">
-        <v>2.7</v>
-      </c>
-      <c r="N11">
-        <v>2.7</v>
-      </c>
-      <c r="O11">
-        <v>7</v>
-      </c>
-      <c r="P11">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
-      </c>
-      <c r="R11">
-        <v>7</v>
-      </c>
-      <c r="S11">
-        <v>44</v>
-      </c>
-      <c r="T11">
-        <v>45</v>
-      </c>
-      <c r="U11">
-        <v>55663</v>
-      </c>
-      <c r="V11">
-        <v>55664</v>
-      </c>
-      <c r="W11">
-        <v>701</v>
-      </c>
-      <c r="X11">
-        <v>702</v>
-      </c>
-      <c r="Y11">
-        <v>801</v>
-      </c>
-      <c r="Z11">
-        <v>802</v>
-      </c>
-      <c r="AA11">
-        <v>75</v>
-      </c>
-      <c r="AB11">
-        <v>175</v>
-      </c>
-      <c r="AC11">
-        <v>120</v>
-      </c>
-      <c r="AD11">
-        <v>280</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>0.05</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>1.159</v>
-      </c>
-      <c r="AI11">
-        <v>4110000</v>
-      </c>
-      <c r="AJ11">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK11">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>18.2</v>
-      </c>
-      <c r="C12">
-        <v>0.1217</v>
-      </c>
-      <c r="D12">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="E12">
-        <v>0.04</v>
-      </c>
-      <c r="F12">
-        <v>0.11559999999999999</v>
-      </c>
-      <c r="G12">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H12">
-        <v>0.04</v>
-      </c>
-      <c r="I12">
-        <v>15</v>
-      </c>
-      <c r="J12">
-        <v>15</v>
-      </c>
-      <c r="K12">
-        <v>2.7</v>
-      </c>
-      <c r="L12">
-        <v>2.7</v>
-      </c>
-      <c r="M12">
-        <v>2.7</v>
-      </c>
-      <c r="N12">
-        <v>2.7</v>
-      </c>
-      <c r="O12">
-        <v>7</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-      <c r="R12">
-        <v>7</v>
-      </c>
-      <c r="S12">
-        <v>44</v>
-      </c>
-      <c r="T12">
-        <v>45</v>
-      </c>
-      <c r="U12">
-        <v>55663</v>
-      </c>
-      <c r="V12">
-        <v>55664</v>
-      </c>
-      <c r="W12">
-        <v>701</v>
-      </c>
-      <c r="X12">
-        <v>702</v>
-      </c>
-      <c r="Y12">
-        <v>801</v>
-      </c>
-      <c r="Z12">
-        <v>802</v>
-      </c>
-      <c r="AA12">
-        <v>75</v>
-      </c>
-      <c r="AB12">
-        <v>175</v>
-      </c>
-      <c r="AC12">
-        <v>120</v>
-      </c>
-      <c r="AD12">
-        <v>280</v>
-      </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-      <c r="AF12">
-        <v>0.05</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>1.159</v>
-      </c>
-      <c r="AI12">
-        <v>4110000</v>
-      </c>
-      <c r="AJ12">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK12">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>52</v>
-      </c>
-      <c r="B13">
-        <v>18.2</v>
-      </c>
-      <c r="C13">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="D13">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="E13">
-        <v>0.04</v>
-      </c>
-      <c r="F13">
-        <v>0.14460000000000001</v>
-      </c>
-      <c r="G13">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H13">
-        <v>0.04</v>
-      </c>
-      <c r="I13">
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>15</v>
-      </c>
-      <c r="K13">
-        <v>2.7</v>
-      </c>
-      <c r="L13">
-        <v>2.7</v>
-      </c>
-      <c r="M13">
-        <v>2.7</v>
-      </c>
-      <c r="N13">
-        <v>2.7</v>
-      </c>
-      <c r="O13">
-        <v>7</v>
-      </c>
-      <c r="P13">
-        <v>7</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
-      </c>
-      <c r="R13">
-        <v>7</v>
-      </c>
-      <c r="S13">
-        <v>44</v>
-      </c>
-      <c r="T13">
-        <v>45</v>
-      </c>
-      <c r="U13">
-        <v>55663</v>
-      </c>
-      <c r="V13">
-        <v>55664</v>
-      </c>
-      <c r="W13">
-        <v>701</v>
-      </c>
-      <c r="X13">
-        <v>702</v>
-      </c>
-      <c r="Y13">
-        <v>801</v>
-      </c>
-      <c r="Z13">
-        <v>802</v>
-      </c>
-      <c r="AA13">
-        <v>75</v>
-      </c>
-      <c r="AB13">
-        <v>175</v>
-      </c>
-      <c r="AC13">
-        <v>120</v>
-      </c>
-      <c r="AD13">
-        <v>280</v>
-      </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
-        <v>0.05</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>1.159</v>
-      </c>
-      <c r="AI13">
-        <v>4110000</v>
-      </c>
-      <c r="AJ13">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK13">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>18.2</v>
-      </c>
-      <c r="C14">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="D14">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="E14">
-        <v>0.04</v>
-      </c>
-      <c r="F14">
-        <v>7.5399999999999995E-2</v>
-      </c>
-      <c r="G14">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H14">
-        <v>0.04</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>15</v>
-      </c>
-      <c r="K14">
-        <v>2.7</v>
-      </c>
-      <c r="L14">
-        <v>2.7</v>
-      </c>
-      <c r="M14">
-        <v>2.7</v>
-      </c>
-      <c r="N14">
-        <v>2.7</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
-      <c r="R14">
-        <v>7</v>
-      </c>
-      <c r="S14">
-        <v>44</v>
-      </c>
-      <c r="T14">
-        <v>45</v>
-      </c>
-      <c r="U14">
-        <v>55663</v>
-      </c>
-      <c r="V14">
-        <v>55664</v>
-      </c>
-      <c r="W14">
-        <v>701</v>
-      </c>
-      <c r="X14">
-        <v>702</v>
-      </c>
-      <c r="Y14">
-        <v>801</v>
-      </c>
-      <c r="Z14">
-        <v>802</v>
-      </c>
-      <c r="AA14">
-        <v>75</v>
-      </c>
-      <c r="AB14">
-        <v>175</v>
-      </c>
-      <c r="AC14">
-        <v>120</v>
-      </c>
-      <c r="AD14">
-        <v>280</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <v>0.05</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>1.159</v>
-      </c>
-      <c r="AI14">
-        <v>4110000</v>
-      </c>
-      <c r="AJ14">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AK14">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>771</v>
-      </c>
-      <c r="B15">
-        <v>18.2</v>
-      </c>
-      <c r="C15">
-        <v>0.3182298626253639</v>
-      </c>
-      <c r="D15">
-        <v>7.0491803278688479E-3</v>
-      </c>
-      <c r="E15">
-        <v>2.9265873015873016E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.3182298626253639</v>
-      </c>
-      <c r="G15">
-        <v>7.0491803278688479E-3</v>
-      </c>
-      <c r="H15">
-        <v>2.9265873015873016E-2</v>
-      </c>
-      <c r="I15">
-        <v>15</v>
-      </c>
-      <c r="J15">
-        <v>15</v>
-      </c>
-      <c r="K15">
-        <v>2.7</v>
-      </c>
-      <c r="L15">
-        <v>2.7</v>
-      </c>
-      <c r="M15">
-        <v>2.7</v>
-      </c>
-      <c r="N15">
-        <v>2.7</v>
-      </c>
-      <c r="O15">
-        <v>7</v>
-      </c>
-      <c r="P15">
-        <v>7</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-      <c r="R15">
-        <v>7</v>
-      </c>
-      <c r="S15">
-        <v>42</v>
-      </c>
-      <c r="T15">
-        <v>43</v>
-      </c>
-      <c r="U15">
-        <v>55663</v>
-      </c>
-      <c r="V15">
-        <v>55664</v>
-      </c>
-      <c r="W15">
-        <v>701</v>
-      </c>
-      <c r="X15">
-        <v>702</v>
-      </c>
-      <c r="Y15">
-        <v>801</v>
-      </c>
-      <c r="Z15">
-        <v>802</v>
-      </c>
-      <c r="AA15">
-        <v>75</v>
-      </c>
-      <c r="AB15">
-        <v>175</v>
-      </c>
-      <c r="AC15">
-        <v>120</v>
-      </c>
-      <c r="AD15">
-        <v>280</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>0.7</v>
-      </c>
-      <c r="AG15">
-        <v>0.7</v>
-      </c>
-      <c r="AH15">
-        <v>1.159</v>
-      </c>
-      <c r="AI15">
-        <v>3970000</v>
-      </c>
-      <c r="AJ15">
-        <v>0.2069</v>
-      </c>
-      <c r="AK15">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>711</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
         <v>-9</v>
       </c>
     </row>
@@ -24945,19 +23742,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AU17"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -25036,566 +23833,1861 @@
       <c r="Z1">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA1">
+        <v>27</v>
+      </c>
+      <c r="AB1">
+        <v>28</v>
+      </c>
+      <c r="AC1">
+        <v>29</v>
+      </c>
+      <c r="AD1">
+        <v>30</v>
+      </c>
+      <c r="AE1">
+        <v>31</v>
+      </c>
+      <c r="AF1">
+        <v>32</v>
+      </c>
+      <c r="AG1">
+        <v>33</v>
+      </c>
+      <c r="AH1">
+        <v>34</v>
+      </c>
+      <c r="AI1">
+        <v>35</v>
+      </c>
+      <c r="AJ1">
+        <v>36</v>
+      </c>
+      <c r="AK1">
+        <v>37</v>
+      </c>
+      <c r="AL1">
+        <v>38</v>
+      </c>
+      <c r="AM1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>776</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>653</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>654</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>655</v>
       </c>
       <c r="F2" t="s">
-        <v>761</v>
+        <v>656</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>657</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>658</v>
       </c>
       <c r="I2" t="s">
-        <v>308</v>
+        <v>659</v>
       </c>
       <c r="J2" t="s">
-        <v>309</v>
+        <v>660</v>
       </c>
       <c r="K2" t="s">
-        <v>310</v>
+        <v>661</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
+        <v>662</v>
       </c>
       <c r="M2" t="s">
-        <v>312</v>
+        <v>663</v>
       </c>
       <c r="N2" t="s">
-        <v>313</v>
+        <v>664</v>
       </c>
       <c r="O2" t="s">
-        <v>314</v>
+        <v>665</v>
       </c>
       <c r="P2" t="s">
-        <v>315</v>
+        <v>666</v>
       </c>
       <c r="Q2" t="s">
-        <v>316</v>
+        <v>667</v>
       </c>
       <c r="R2" t="s">
-        <v>317</v>
+        <v>668</v>
       </c>
       <c r="S2" t="s">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>320</v>
+        <v>543</v>
       </c>
       <c r="V2" t="s">
-        <v>321</v>
+        <v>544</v>
       </c>
       <c r="W2" t="s">
-        <v>322</v>
+        <v>669</v>
       </c>
       <c r="X2" t="s">
-        <v>323</v>
+        <v>670</v>
       </c>
       <c r="Y2" t="s">
-        <v>324</v>
+        <v>671</v>
       </c>
       <c r="Z2" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA2" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>720</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>721</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>723</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>724</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>725</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>18.2</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>2.7</v>
+      </c>
+      <c r="L4">
+        <v>2.7</v>
+      </c>
+      <c r="M4">
+        <v>2.7</v>
+      </c>
+      <c r="N4">
+        <v>2.7</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>44</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4">
+        <v>55663</v>
+      </c>
+      <c r="V4">
+        <v>55664</v>
+      </c>
+      <c r="W4">
+        <v>701</v>
+      </c>
+      <c r="X4">
+        <v>702</v>
+      </c>
+      <c r="Y4">
+        <v>801</v>
+      </c>
+      <c r="Z4">
+        <v>802</v>
+      </c>
+      <c r="AA4">
+        <v>75</v>
+      </c>
+      <c r="AB4">
+        <v>175</v>
+      </c>
+      <c r="AC4">
+        <v>120</v>
+      </c>
+      <c r="AD4">
+        <v>280</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>0.05</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1.159</v>
+      </c>
+      <c r="AI4">
+        <v>3970000</v>
+      </c>
+      <c r="AJ4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="s">
         <v>139</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AP4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>18.2</v>
+      </c>
+      <c r="C5">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="D5">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="G5">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="I5">
+        <v>-999</v>
+      </c>
+      <c r="J5">
+        <v>-999</v>
+      </c>
+      <c r="K5">
+        <v>-999</v>
+      </c>
+      <c r="L5">
+        <v>-999</v>
+      </c>
+      <c r="M5">
+        <v>-999</v>
+      </c>
+      <c r="N5">
+        <v>-999</v>
+      </c>
+      <c r="O5">
+        <v>-999</v>
+      </c>
+      <c r="P5">
+        <v>-999</v>
+      </c>
+      <c r="Q5">
+        <v>-999</v>
+      </c>
+      <c r="R5">
+        <v>-999</v>
+      </c>
+      <c r="S5">
+        <v>44</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5">
+        <v>55663</v>
+      </c>
+      <c r="V5">
+        <v>55664</v>
+      </c>
+      <c r="W5">
+        <v>701</v>
+      </c>
+      <c r="X5">
+        <v>702</v>
+      </c>
+      <c r="Y5">
+        <v>801</v>
+      </c>
+      <c r="Z5">
+        <v>802</v>
+      </c>
+      <c r="AA5">
+        <v>75</v>
+      </c>
+      <c r="AB5">
+        <v>175</v>
+      </c>
+      <c r="AC5">
+        <v>120</v>
+      </c>
+      <c r="AD5">
+        <v>280</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>0.05</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>1.159</v>
+      </c>
+      <c r="AI5">
+        <v>4110000</v>
+      </c>
+      <c r="AJ5">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK5">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="AP5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>551</v>
+      </c>
+      <c r="B6">
+        <v>18.2</v>
+      </c>
+      <c r="C6">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.8E-3</v>
+      </c>
+      <c r="I6">
+        <v>-999</v>
+      </c>
+      <c r="J6">
+        <v>-999</v>
+      </c>
+      <c r="K6">
+        <v>-999</v>
+      </c>
+      <c r="L6">
+        <v>-999</v>
+      </c>
+      <c r="M6">
+        <v>-999</v>
+      </c>
+      <c r="N6">
+        <v>-999</v>
+      </c>
+      <c r="O6">
+        <v>-999</v>
+      </c>
+      <c r="P6">
+        <v>-999</v>
+      </c>
+      <c r="Q6">
+        <v>-999</v>
+      </c>
+      <c r="R6">
+        <v>-999</v>
+      </c>
+      <c r="S6">
+        <v>42</v>
+      </c>
+      <c r="T6">
+        <v>43</v>
+      </c>
+      <c r="U6">
+        <v>55663</v>
+      </c>
+      <c r="V6">
+        <v>55664</v>
+      </c>
+      <c r="W6">
+        <v>701</v>
+      </c>
+      <c r="X6">
+        <v>702</v>
+      </c>
+      <c r="Y6">
+        <v>801</v>
+      </c>
+      <c r="Z6">
+        <v>802</v>
+      </c>
+      <c r="AA6">
+        <v>75</v>
+      </c>
+      <c r="AB6">
+        <v>175</v>
+      </c>
+      <c r="AC6">
+        <v>120</v>
+      </c>
+      <c r="AD6">
+        <v>280</v>
+      </c>
+      <c r="AE6">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>152</v>
-      </c>
-      <c r="C4">
-        <v>243</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4">
-        <v>-999</v>
-      </c>
-      <c r="G4">
-        <v>-84.534999999999997</v>
-      </c>
-      <c r="H4">
-        <v>9.9589999999999996</v>
-      </c>
-      <c r="I4">
-        <v>3.6739999999999999</v>
-      </c>
-      <c r="J4">
-        <v>-25.36</v>
-      </c>
-      <c r="K4">
-        <v>2.988</v>
-      </c>
-      <c r="L4">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="M4">
+      <c r="AF6">
+        <v>0.7</v>
+      </c>
+      <c r="AG6">
+        <v>0.7</v>
+      </c>
+      <c r="AH6">
+        <v>1.159</v>
+      </c>
+      <c r="AI6">
+        <v>3970000</v>
+      </c>
+      <c r="AJ6">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK6">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="AN6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>652</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5512</v>
+      </c>
+      <c r="B7">
+        <v>18.2</v>
+      </c>
+      <c r="C7">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="D7">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="G7">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H7">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="I7">
+        <v>-999</v>
+      </c>
+      <c r="J7">
+        <v>-999</v>
+      </c>
+      <c r="K7">
+        <v>-999</v>
+      </c>
+      <c r="L7">
+        <v>-999</v>
+      </c>
+      <c r="M7">
+        <v>-999</v>
+      </c>
+      <c r="N7">
+        <v>-999</v>
+      </c>
+      <c r="O7">
+        <v>-999</v>
+      </c>
+      <c r="P7">
+        <v>-999</v>
+      </c>
+      <c r="Q7">
+        <v>-999</v>
+      </c>
+      <c r="R7">
+        <v>-999</v>
+      </c>
+      <c r="S7">
+        <v>42</v>
+      </c>
+      <c r="T7">
+        <v>43</v>
+      </c>
+      <c r="U7">
+        <v>55663</v>
+      </c>
+      <c r="V7">
+        <v>55664</v>
+      </c>
+      <c r="W7">
+        <v>701</v>
+      </c>
+      <c r="X7">
+        <v>702</v>
+      </c>
+      <c r="Y7">
+        <v>801</v>
+      </c>
+      <c r="Z7">
+        <v>802</v>
+      </c>
+      <c r="AA7">
+        <v>75</v>
+      </c>
+      <c r="AB7">
+        <v>175</v>
+      </c>
+      <c r="AC7">
+        <v>120</v>
+      </c>
+      <c r="AD7">
+        <v>280</v>
+      </c>
+      <c r="AE7">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="AF7">
+        <v>0.7</v>
+      </c>
+      <c r="AG7">
+        <v>0.7</v>
+      </c>
+      <c r="AH7">
+        <v>1.159</v>
+      </c>
+      <c r="AI7">
+        <v>3970000</v>
+      </c>
+      <c r="AJ7">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK7">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="AN7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>681</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>661</v>
+      </c>
+      <c r="B8">
+        <v>18.2</v>
+      </c>
+      <c r="C8">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="D8">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="G8">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>2.7</v>
+      </c>
+      <c r="L8">
+        <v>2.7</v>
+      </c>
+      <c r="M8">
+        <v>2.7</v>
+      </c>
+      <c r="N8">
+        <v>2.7</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>42</v>
+      </c>
+      <c r="T8">
+        <v>43</v>
+      </c>
+      <c r="U8">
+        <v>55663</v>
+      </c>
+      <c r="V8">
+        <v>55664</v>
+      </c>
+      <c r="W8">
+        <v>701</v>
+      </c>
+      <c r="X8">
+        <v>702</v>
+      </c>
+      <c r="Y8">
+        <v>801</v>
+      </c>
+      <c r="Z8">
+        <v>802</v>
+      </c>
+      <c r="AA8">
+        <v>75</v>
+      </c>
+      <c r="AB8">
+        <v>175</v>
+      </c>
+      <c r="AC8">
+        <v>120</v>
+      </c>
+      <c r="AD8">
+        <v>280</v>
+      </c>
+      <c r="AE8">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="AF8">
+        <v>0.7</v>
+      </c>
+      <c r="AG8">
+        <v>0.7</v>
+      </c>
+      <c r="AH8">
+        <v>1.159</v>
+      </c>
+      <c r="AI8">
+        <v>3970000</v>
+      </c>
+      <c r="AJ8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>1</v>
       </c>
-      <c r="R4">
+      <c r="AN8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>18.2</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.02</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H9">
+        <v>0.02</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>2.7</v>
+      </c>
+      <c r="L9">
+        <v>2.7</v>
+      </c>
+      <c r="M9">
+        <v>2.7</v>
+      </c>
+      <c r="N9">
+        <v>2.7</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>44</v>
+      </c>
+      <c r="T9">
+        <v>45</v>
+      </c>
+      <c r="U9">
+        <v>55663</v>
+      </c>
+      <c r="V9">
+        <v>55664</v>
+      </c>
+      <c r="W9">
+        <v>701</v>
+      </c>
+      <c r="X9">
+        <v>702</v>
+      </c>
+      <c r="Y9">
+        <v>801</v>
+      </c>
+      <c r="Z9">
+        <v>802</v>
+      </c>
+      <c r="AA9">
+        <v>75</v>
+      </c>
+      <c r="AB9">
+        <v>175</v>
+      </c>
+      <c r="AC9">
+        <v>120</v>
+      </c>
+      <c r="AD9">
+        <v>280</v>
+      </c>
+      <c r="AE9">
         <v>1</v>
       </c>
-      <c r="S4">
+      <c r="AF9">
+        <v>0.05</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>1.159</v>
+      </c>
+      <c r="AI9">
+        <v>4110000</v>
+      </c>
+      <c r="AJ9">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK9">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="AN9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>18.2</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E10">
+        <v>0.03</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="G10">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H10">
+        <v>0.03</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>2.7</v>
+      </c>
+      <c r="L10">
+        <v>2.7</v>
+      </c>
+      <c r="M10">
+        <v>2.7</v>
+      </c>
+      <c r="N10">
+        <v>2.7</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>44</v>
+      </c>
+      <c r="T10">
+        <v>45</v>
+      </c>
+      <c r="U10">
+        <v>55663</v>
+      </c>
+      <c r="V10">
+        <v>55664</v>
+      </c>
+      <c r="W10">
+        <v>701</v>
+      </c>
+      <c r="X10">
+        <v>702</v>
+      </c>
+      <c r="Y10">
+        <v>801</v>
+      </c>
+      <c r="Z10">
+        <v>802</v>
+      </c>
+      <c r="AA10">
+        <v>75</v>
+      </c>
+      <c r="AB10">
+        <v>175</v>
+      </c>
+      <c r="AC10">
+        <v>120</v>
+      </c>
+      <c r="AD10">
+        <v>280</v>
+      </c>
+      <c r="AE10">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="AF10">
+        <v>0.05</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>1.159</v>
+      </c>
+      <c r="AI10">
+        <v>4110000</v>
+      </c>
+      <c r="AJ10">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK10">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="AN10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>18.2</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.04</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H11">
+        <v>0.04</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>2.7</v>
+      </c>
+      <c r="L11">
+        <v>2.7</v>
+      </c>
+      <c r="M11">
+        <v>2.7</v>
+      </c>
+      <c r="N11">
+        <v>2.7</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>44</v>
+      </c>
+      <c r="T11">
+        <v>45</v>
+      </c>
+      <c r="U11">
+        <v>55663</v>
+      </c>
+      <c r="V11">
+        <v>55664</v>
+      </c>
+      <c r="W11">
+        <v>701</v>
+      </c>
+      <c r="X11">
+        <v>702</v>
+      </c>
+      <c r="Y11">
+        <v>801</v>
+      </c>
+      <c r="Z11">
+        <v>802</v>
+      </c>
+      <c r="AA11">
+        <v>75</v>
+      </c>
+      <c r="AB11">
+        <v>175</v>
+      </c>
+      <c r="AC11">
+        <v>120</v>
+      </c>
+      <c r="AD11">
+        <v>280</v>
+      </c>
+      <c r="AE11">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="AF11">
+        <v>0.05</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>1.159</v>
+      </c>
+      <c r="AI11">
+        <v>4110000</v>
+      </c>
+      <c r="AJ11">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK11">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
         <v>1</v>
       </c>
-      <c r="X4">
+      <c r="AN11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>18.2</v>
+      </c>
+      <c r="C12">
+        <v>0.1217</v>
+      </c>
+      <c r="D12">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E12">
+        <v>0.04</v>
+      </c>
+      <c r="F12">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="G12">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H12">
+        <v>0.04</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>2.7</v>
+      </c>
+      <c r="L12">
+        <v>2.7</v>
+      </c>
+      <c r="M12">
+        <v>2.7</v>
+      </c>
+      <c r="N12">
+        <v>2.7</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>44</v>
+      </c>
+      <c r="T12">
+        <v>45</v>
+      </c>
+      <c r="U12">
+        <v>55663</v>
+      </c>
+      <c r="V12">
+        <v>55664</v>
+      </c>
+      <c r="W12">
+        <v>701</v>
+      </c>
+      <c r="X12">
+        <v>702</v>
+      </c>
+      <c r="Y12">
+        <v>801</v>
+      </c>
+      <c r="Z12">
+        <v>802</v>
+      </c>
+      <c r="AA12">
+        <v>75</v>
+      </c>
+      <c r="AB12">
+        <v>175</v>
+      </c>
+      <c r="AC12">
+        <v>120</v>
+      </c>
+      <c r="AD12">
+        <v>280</v>
+      </c>
+      <c r="AE12">
         <v>1</v>
       </c>
-      <c r="Y4">
+      <c r="AF12">
+        <v>0.05</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>1.159</v>
+      </c>
+      <c r="AI12">
+        <v>4110000</v>
+      </c>
+      <c r="AJ12">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK12">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
         <v>1</v>
       </c>
-      <c r="Z4">
+      <c r="AN12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>18.2</v>
+      </c>
+      <c r="C13">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="D13">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E13">
+        <v>0.04</v>
+      </c>
+      <c r="F13">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="G13">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H13">
+        <v>0.04</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>2.7</v>
+      </c>
+      <c r="L13">
+        <v>2.7</v>
+      </c>
+      <c r="M13">
+        <v>2.7</v>
+      </c>
+      <c r="N13">
+        <v>2.7</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <v>44</v>
+      </c>
+      <c r="T13">
+        <v>45</v>
+      </c>
+      <c r="U13">
+        <v>55663</v>
+      </c>
+      <c r="V13">
+        <v>55664</v>
+      </c>
+      <c r="W13">
+        <v>701</v>
+      </c>
+      <c r="X13">
+        <v>702</v>
+      </c>
+      <c r="Y13">
+        <v>801</v>
+      </c>
+      <c r="Z13">
+        <v>802</v>
+      </c>
+      <c r="AA13">
+        <v>75</v>
+      </c>
+      <c r="AB13">
+        <v>175</v>
+      </c>
+      <c r="AC13">
+        <v>120</v>
+      </c>
+      <c r="AD13">
+        <v>280</v>
+      </c>
+      <c r="AE13">
         <v>1</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AF13">
+        <v>0.05</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>1.159</v>
+      </c>
+      <c r="AI13">
+        <v>4110000</v>
+      </c>
+      <c r="AJ13">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK13">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="s">
         <v>139</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>550</v>
-      </c>
-      <c r="B5">
+      <c r="AP13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>18.2</v>
+      </c>
+      <c r="C14">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="D14">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E14">
+        <v>0.04</v>
+      </c>
+      <c r="F14">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="G14">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.04</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>2.7</v>
+      </c>
+      <c r="L14">
+        <v>2.7</v>
+      </c>
+      <c r="M14">
+        <v>2.7</v>
+      </c>
+      <c r="N14">
+        <v>2.7</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <v>44</v>
+      </c>
+      <c r="T14">
+        <v>45</v>
+      </c>
+      <c r="U14">
+        <v>55663</v>
+      </c>
+      <c r="V14">
+        <v>55664</v>
+      </c>
+      <c r="W14">
+        <v>701</v>
+      </c>
+      <c r="X14">
+        <v>702</v>
+      </c>
+      <c r="Y14">
+        <v>801</v>
+      </c>
+      <c r="Z14">
+        <v>802</v>
+      </c>
+      <c r="AA14">
+        <v>75</v>
+      </c>
+      <c r="AB14">
+        <v>175</v>
+      </c>
+      <c r="AC14">
+        <v>120</v>
+      </c>
+      <c r="AD14">
+        <v>280</v>
+      </c>
+      <c r="AE14">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>366</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>-999</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AF14">
+        <v>0.05</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>1.159</v>
+      </c>
+      <c r="AI14">
+        <v>4110000</v>
+      </c>
+      <c r="AJ14">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK14">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="s">
         <v>139</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>660</v>
-      </c>
-      <c r="B6">
+      <c r="AP14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>771</v>
+      </c>
+      <c r="B15">
+        <v>18.2</v>
+      </c>
+      <c r="C15">
+        <v>0.3182298626253639</v>
+      </c>
+      <c r="D15">
+        <v>7.0491803278688479E-3</v>
+      </c>
+      <c r="E15">
+        <v>2.9265873015873016E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.3182298626253639</v>
+      </c>
+      <c r="G15">
+        <v>7.0491803278688479E-3</v>
+      </c>
+      <c r="H15">
+        <v>2.9265873015873016E-2</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>2.7</v>
+      </c>
+      <c r="L15">
+        <v>2.7</v>
+      </c>
+      <c r="M15">
+        <v>2.7</v>
+      </c>
+      <c r="N15">
+        <v>2.7</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>42</v>
+      </c>
+      <c r="T15">
+        <v>43</v>
+      </c>
+      <c r="U15">
+        <v>55663</v>
+      </c>
+      <c r="V15">
+        <v>55664</v>
+      </c>
+      <c r="W15">
+        <v>701</v>
+      </c>
+      <c r="X15">
+        <v>702</v>
+      </c>
+      <c r="Y15">
+        <v>801</v>
+      </c>
+      <c r="Z15">
+        <v>802</v>
+      </c>
+      <c r="AA15">
+        <v>75</v>
+      </c>
+      <c r="AB15">
+        <v>175</v>
+      </c>
+      <c r="AC15">
+        <v>120</v>
+      </c>
+      <c r="AD15">
+        <v>280</v>
+      </c>
+      <c r="AE15">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>366</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-999</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AF15">
+        <v>0.7</v>
+      </c>
+      <c r="AG15">
+        <v>0.7</v>
+      </c>
+      <c r="AH15">
+        <v>1.159</v>
+      </c>
+      <c r="AI15">
+        <v>3970000</v>
+      </c>
+      <c r="AJ15">
+        <v>0.2069</v>
+      </c>
+      <c r="AK15">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="s">
         <v>139</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>999</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>366</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>-999</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="AP15" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>711</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>-9</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>-9</v>
       </c>
     </row>
